--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="1018">
   <si>
     <t>anchor score</t>
   </si>
@@ -460,445 +460,445 @@
     <t>corona</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>san</t>
@@ -3433,10 +3433,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02809831950837726</v>
+        <v>0.02850824401795615</v>
       </c>
       <c r="C3">
         <v>140</v>
@@ -3515,16 +3515,16 @@
         <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K3">
-        <v>0.004392105925944534</v>
+        <v>0.007761494944082054</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>429</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3544,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01929249056477312</v>
+        <v>0.01957394742310808</v>
       </c>
       <c r="C4">
         <v>66</v>
@@ -3565,16 +3565,16 @@
         <v>450</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K4">
-        <v>0.004235194037747093</v>
+        <v>0.00712493665063566</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3594,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01007517460518936</v>
+        <v>0.01022216065564418</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -3615,16 +3615,16 @@
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K5">
-        <v>0.003945611253596651</v>
+        <v>0.004392105925944534</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3644,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009791309742504362</v>
+        <v>0.009934154507406919</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3665,28 +3665,28 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="K6">
-        <v>0.00372508389475499</v>
+        <v>0.004235194037747093</v>
       </c>
       <c r="L6">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2751</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3694,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009791309742504362</v>
+        <v>0.009934154507406919</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -3715,28 +3715,28 @@
         <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="K7">
-        <v>0.003705993678141195</v>
+        <v>0.003945611253596651</v>
       </c>
       <c r="L7">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>774</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3744,7 +3744,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008226345617386966</v>
+        <v>0.008346359225027395</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -3765,28 +3765,28 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>0.003538638838306934</v>
+        <v>0.00372508389475499</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3794,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007124224284967895</v>
+        <v>0.007228159117984325</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3815,28 +3815,28 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K9">
-        <v>0.003443579288285918</v>
+        <v>0.003705993678141195</v>
       </c>
       <c r="L9">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="M9">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>200</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007124224284967895</v>
+        <v>0.007228159117984325</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3865,28 +3865,28 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="K10">
-        <v>0.003333155953585968</v>
+        <v>0.003538638838306934</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3894,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007124224284967895</v>
+        <v>0.007228159117984325</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3915,28 +3915,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="K11">
-        <v>0.003094794364283933</v>
+        <v>0.003443579288285918</v>
       </c>
       <c r="L11">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="M11">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="N11">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1893</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3944,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006716783070126243</v>
+        <v>0.006814773770429455</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -3965,28 +3965,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="K12">
-        <v>0.002966347674795672</v>
+        <v>0.003333155953585968</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>137</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3994,7 +3994,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006282975247424002</v>
+        <v>0.006374637154330168</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4015,28 +4015,28 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.002936298199642115</v>
+        <v>0.003094794364283933</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="M13">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4044,7 +4044,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006282975247424002</v>
+        <v>0.006374637154330168</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4065,16 +4065,16 @@
         <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K14">
-        <v>0.002849974660254264</v>
+        <v>0.002966347674795672</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>284</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4094,7 +4094,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4115,28 +4115,28 @@
         <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="K15">
-        <v>0.002789968473344146</v>
+        <v>0.002936298199642115</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4144,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4165,16 +4165,16 @@
         <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K16">
-        <v>0.002789968473344146</v>
+        <v>0.002849974660254264</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4215,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K17">
         <v>0.002789968473344146</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4244,7 +4244,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4265,16 +4265,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K18">
-        <v>0.002728642996146093</v>
+        <v>0.002789968473344146</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4294,7 +4294,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4315,28 +4315,28 @@
         <v>143</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="K19">
-        <v>0.002688323038674965</v>
+        <v>0.002789968473344146</v>
       </c>
       <c r="L19">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4344,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4365,16 +4365,16 @@
         <v>71</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K20">
-        <v>0.00266590718491473</v>
+        <v>0.002728642996146093</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4394,7 +4394,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4415,28 +4415,28 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="K21">
-        <v>0.002535783538653428</v>
+        <v>0.002688323038674965</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4444,7 +4444,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00581690477043856</v>
+        <v>0.005901767206235769</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4465,28 +4465,28 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="K22">
-        <v>0.002493568074898353</v>
+        <v>0.00266590718491473</v>
       </c>
       <c r="L22">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="N22">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4494,7 +4494,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4515,16 +4515,16 @@
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K23">
-        <v>0.002468150455922117</v>
+        <v>0.002535783538653428</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4544,7 +4544,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4565,7 +4565,7 @@
         <v>46</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K24">
         <v>0.002468150455922117</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>249</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4594,7 +4594,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4615,28 +4615,28 @@
         <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="K25">
-        <v>0.002345811128240131</v>
+        <v>0.002468150455922117</v>
       </c>
       <c r="L25">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4644,7 +4644,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4665,28 +4665,28 @@
         <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26">
-        <v>0.002328622046372868</v>
+        <v>0.002345811128240131</v>
       </c>
       <c r="L26">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="M26">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>162</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4694,7 +4694,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4715,28 +4715,28 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K27">
-        <v>0.002328227895825027</v>
+        <v>0.002328622046372868</v>
       </c>
       <c r="L27">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="M27">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>3000</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4744,7 +4744,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4765,28 +4765,28 @@
         <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="K28">
-        <v>0.002326994565828264</v>
+        <v>0.002328227895825027</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>127</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4794,7 +4794,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4815,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K29">
         <v>0.002326994565828264</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4844,7 +4844,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4865,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K30">
         <v>0.002326994565828264</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4894,7 +4894,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4915,7 +4915,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K31">
         <v>0.002326994565828264</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4944,7 +4944,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00531008326271435</v>
+        <v>0.005387551713332625</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4965,16 +4965,16 @@
         <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K32">
-        <v>0.002253102800042006</v>
+        <v>0.002326994565828264</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4994,7 +4994,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5015,28 +5015,28 @@
         <v>162</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="K33">
-        <v>0.002220738199063034</v>
+        <v>0.002253102800042006</v>
       </c>
       <c r="L33">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5044,7 +5044,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5065,28 +5065,28 @@
         <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="K34">
-        <v>0.002176704101553536</v>
+        <v>0.002220738199063034</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5094,7 +5094,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5115,7 +5115,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K35">
         <v>0.002176704101553536</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5144,7 +5144,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5165,7 +5165,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K36">
         <v>0.002176704101553536</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5194,7 +5194,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5215,28 +5215,28 @@
         <v>22</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="K37">
-        <v>0.002157315140471003</v>
+        <v>0.002176704101553536</v>
       </c>
       <c r="L37">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>322</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5244,7 +5244,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5265,28 +5265,28 @@
         <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K38">
-        <v>0.002113811312869623</v>
+        <v>0.002157315140471003</v>
       </c>
       <c r="L38">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="M38">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>793</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5294,7 +5294,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5315,28 +5315,28 @@
         <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="K39">
-        <v>0.002097524556204967</v>
+        <v>0.002113811312869623</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5344,7 +5344,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5365,16 +5365,16 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K40">
-        <v>0.002015236408475617</v>
+        <v>0.002097524556204967</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5394,7 +5394,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5415,7 +5415,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K41">
         <v>0.002015236408475617</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5444,7 +5444,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004749482856645264</v>
+        <v>0.004818772745322884</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5465,7 +5465,7 @@
         <v>28</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K42">
         <v>0.002015236408475617</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5494,7 +5494,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5515,28 +5515,28 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="K43">
-        <v>0.001965909342902496</v>
+        <v>0.002015236408475617</v>
       </c>
       <c r="L43">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="M43">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5544,7 +5544,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5594,7 +5594,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5644,7 +5644,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5694,7 +5694,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5744,7 +5744,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5794,7 +5794,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5844,7 +5844,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5894,7 +5894,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5944,7 +5944,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5994,7 +5994,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6044,7 +6044,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6094,7 +6094,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004113172808693483</v>
+        <v>0.004173179612513698</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6144,7 +6144,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6194,7 +6194,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6215,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K57">
         <v>0.00183893395764147</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K58">
         <v>0.001763218895110912</v>
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6344,7 +6344,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6394,7 +6394,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6444,7 +6444,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6494,7 +6494,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6544,7 +6544,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6594,7 +6594,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6644,7 +6644,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6694,7 +6694,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6744,7 +6744,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6794,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6844,7 +6844,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6894,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6944,7 +6944,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6994,7 +6994,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7044,7 +7044,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7094,7 +7094,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003358391535063121</v>
+        <v>0.003407386885214728</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7144,7 +7144,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003076578310485694</v>
+        <v>0.003121462306296579</v>
       </c>
       <c r="C76">
         <v>14</v>
@@ -7194,7 +7194,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002578737450370446</v>
+        <v>0.002616358479071492</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -7244,7 +7244,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7394,7 +7394,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7444,7 +7444,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7494,7 +7494,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7544,7 +7544,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7615,7 +7615,7 @@
         <v>11</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K85">
         <v>0.001630837343834793</v>
@@ -7644,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>19</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K86">
         <v>0.001603065788406236</v>
@@ -7694,7 +7694,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7794,7 +7794,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7894,7 +7894,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7944,7 +7944,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8044,7 +8044,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8094,7 +8094,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8144,7 +8144,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8194,7 +8194,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8244,7 +8244,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8344,7 +8344,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8394,7 +8394,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8415,7 +8415,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K101">
         <v>0.001529332686018182</v>
@@ -8444,7 +8444,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8465,7 +8465,7 @@
         <v>27</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K102">
         <v>0.001465961115480158</v>
@@ -8494,7 +8494,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K103">
         <v>0.001460250297473535</v>
@@ -8544,7 +8544,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8744,7 +8744,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8794,7 +8794,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8944,7 +8944,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9044,7 +9044,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9244,7 +9244,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9294,7 +9294,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9394,7 +9394,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9594,7 +9594,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9644,7 +9644,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9694,7 +9694,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9744,7 +9744,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9794,7 +9794,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9844,7 +9844,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9894,7 +9894,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9944,7 +9944,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9994,7 +9994,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10094,7 +10094,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10144,7 +10144,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10194,7 +10194,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10244,7 +10244,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10294,7 +10294,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10394,7 +10394,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002374741428322632</v>
+        <v>0.002409386372661442</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002286788405338273</v>
+        <v>0.002320150208889888</v>
       </c>
       <c r="C142">
         <v>11</v>
@@ -10494,25 +10494,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002168733123761974</v>
+        <v>0.002131987426711425</v>
       </c>
       <c r="C143">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E143">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F143">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>413</v>
@@ -10544,25 +10544,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002101331245300442</v>
+        <v>0.001906119367470827</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E144">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F144">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>414</v>
@@ -10594,25 +10594,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002035786245060224</v>
+        <v>0.001767826633262242</v>
       </c>
       <c r="C145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E145">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F145">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>415</v>
@@ -10644,13 +10644,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001878710978289889</v>
+        <v>0.00171692219859443</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E146">
         <v>0.96</v>
@@ -10662,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>162</v>
+        <v>793</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>416</v>
@@ -10694,25 +10694,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001742406776984735</v>
+        <v>0.001666190506232776</v>
       </c>
       <c r="C147">
         <v>3</v>
       </c>
       <c r="D147">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E147">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>417</v>
@@ -10744,25 +10744,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001692234305162599</v>
+        <v>0.001625898557328475</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E148">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>793</v>
+        <v>13</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>418</v>
@@ -10794,13 +10794,13 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001642232091757922</v>
+        <v>0.001604736816340579</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E149">
         <v>0.97</v>
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>419</v>
@@ -10844,25 +10844,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.00160251950710293</v>
+        <v>0.001460519294814004</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
       <c r="D150">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>13</v>
+        <v>789</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>420</v>
@@ -10894,25 +10894,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001581662054105933</v>
+        <v>0.001431058113177244</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>322</v>
+        <v>1085</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>421</v>
@@ -10944,28 +10944,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001439518258928383</v>
+        <v>0.001407026462162744</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E152">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F152">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K152">
         <v>0.001282143797028728</v>
@@ -10994,28 +10994,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001410480704240602</v>
+        <v>0.001394532334993932</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1085</v>
+        <v>345</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K153">
         <v>0.001269559566965992</v>
@@ -11044,13 +11044,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00138679460810315</v>
+        <v>0.001360216672226701</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E154">
         <v>0.99</v>
@@ -11062,10 +11062,10 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>774</v>
+        <v>24</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K154">
         <v>0.00124221533357215</v>
@@ -11094,28 +11094,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001374480135947431</v>
+        <v>0.001335966364074877</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K155">
         <v>0.001220369302891271</v>
@@ -11144,25 +11144,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001340657903474323</v>
+        <v>0.0013067655414566</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D156">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E156">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>422</v>
@@ -11194,25 +11194,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001316756294304801</v>
+        <v>0.00130380188450829</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>423</v>
@@ -11244,25 +11244,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001287975354892363</v>
+        <v>0.00123933268030332</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>33</v>
+        <v>593</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>424</v>
@@ -11294,25 +11294,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001285054312831884</v>
+        <v>0.001214007311499085</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E159">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>425</v>
@@ -11344,25 +11344,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001221512121420126</v>
+        <v>0.001151468858641033</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D160">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E160">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F160">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>593</v>
+        <v>273</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>426</v>
@@ -11394,25 +11394,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001196550910063837</v>
+        <v>0.001146395653207343</v>
       </c>
       <c r="C161">
         <v>3</v>
       </c>
       <c r="D161">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>427</v>
@@ -11444,25 +11444,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001134911707422722</v>
+        <v>0.001109554726321095</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>428</v>
@@ -11494,25 +11494,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.00112991145040522</v>
+        <v>0.001042214411804219</v>
       </c>
       <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>43</v>
+      </c>
+      <c r="E163">
+        <v>0.98</v>
+      </c>
+      <c r="F163">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163">
         <v>3</v>
-      </c>
-      <c r="D163">
-        <v>50</v>
-      </c>
-      <c r="E163">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F163">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>165</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>429</v>
@@ -11544,25 +11544,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001093600264981714</v>
+        <v>0.001014240010867717</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>430</v>
@@ -11594,25 +11594,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00102722824740329</v>
+        <v>0.001005862076138221</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E165">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>431</v>
@@ -11644,13 +11644,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0009996560947630152</v>
+        <v>0.0009942543808994335</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E166">
         <v>0.97</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>18</v>
+        <v>529</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>432</v>
@@ -11694,25 +11694,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.000991398627670288</v>
+        <v>0.0009642898299920579</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E167">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>433</v>
@@ -11744,13 +11744,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0009799578413009174</v>
+        <v>0.0009387129697486197</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E168">
         <v>0.97</v>
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>529</v>
+        <v>182</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>434</v>
@@ -11794,13 +11794,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0009504241553681691</v>
+        <v>0.0009302070200247691</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E169">
         <v>0.9399999999999999</v>
@@ -11812,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>435</v>
@@ -11844,25 +11844,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0009252150688075032</v>
+        <v>0.0009123872907695183</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E170">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F170">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>436</v>
@@ -11894,25 +11894,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0009168314274680925</v>
+        <v>0.0008743800573922246</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E171">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F171">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>437</v>
@@ -11944,25 +11944,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0008992679308931564</v>
+        <v>0.0008730997819345085</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>438</v>
@@ -11994,13 +11994,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008618072094824651</v>
+        <v>0.0008535784926870321</v>
       </c>
       <c r="C173">
         <v>3</v>
       </c>
       <c r="D173">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E173">
         <v>0.91</v>
@@ -12012,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>439</v>
@@ -12044,13 +12044,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008605453433062467</v>
+        <v>0.0007935185843173613</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E174">
         <v>0.96</v>
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>440</v>
@@ -12094,25 +12094,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0008413047537369434</v>
+        <v>0.0007935185843173613</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E175">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>441</v>
@@ -12144,25 +12144,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0007821084562044846</v>
+        <v>0.0007699564971700039</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>442</v>
@@ -12194,25 +12194,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0007821084562044846</v>
+        <v>0.000746564806296998</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>443</v>
@@ -12244,13 +12244,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0007588851720017228</v>
+        <v>0.000746564806296998</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E178">
         <v>0.92</v>
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>444</v>
@@ -12294,25 +12294,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0007358298339185731</v>
+        <v>0.0007222499798006547</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="D179">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E179">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F179">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>445</v>
@@ -12344,25 +12344,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007358298339185731</v>
+        <v>0.0006933936062661652</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E180">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>446</v>
@@ -12394,25 +12394,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0007118646341239211</v>
+        <v>0.000645155240371549</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>447</v>
@@ -12444,13 +12444,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006834231909079002</v>
+        <v>0.000645155240371549</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E182">
         <v>0.9399999999999999</v>
@@ -12462,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>448</v>
@@ -12494,7 +12494,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006358784520381467</v>
+        <v>0.000645155240371549</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12512,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>344</v>
+        <v>115</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>449</v>
@@ -12544,7 +12544,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006358784520381467</v>
+        <v>0.000645155240371549</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12562,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>450</v>
@@ -12594,25 +12594,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006358784520381467</v>
+        <v>0.0006187465668464553</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E185">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F185">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>451</v>
@@ -12644,25 +12644,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006358784520381467</v>
+        <v>0.0006187465668464553</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>452</v>
@@ -12694,25 +12694,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006098495129693944</v>
+        <v>0.0006142826205269035</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>453</v>
@@ -12744,13 +12744,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006098495129693944</v>
+        <v>0.0005905625538841264</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E188">
         <v>0.93</v>
@@ -12762,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>454</v>
@@ -12794,25 +12794,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006054497544337227</v>
+        <v>0.0005905625538841264</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>455</v>
@@ -12844,25 +12844,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005820707623474703</v>
+        <v>0.0005603727324056555</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>456</v>
@@ -12894,25 +12894,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005820707623474703</v>
+        <v>0.0005279010371278286</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>457</v>
@@ -12944,13 +12944,13 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005523150450444808</v>
+        <v>0.0005279010371278286</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E192">
         <v>0.92</v>
@@ -12962,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>458</v>
@@ -12994,25 +12994,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.000520310265363194</v>
+        <v>0.0005194355854727839</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E193">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F193">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>459</v>
@@ -13044,25 +13044,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.000520310265363194</v>
+        <v>0.0004928137725273336</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>460</v>
@@ -13094,25 +13094,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005119665397645095</v>
+        <v>0.0004845437920834357</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>461</v>
@@ -13144,25 +13144,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004857275260405367</v>
+        <v>0.0004697834755774656</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>61</v>
+        <v>519</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>462</v>
@@ -13194,25 +13194,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0004775764609418126</v>
+        <v>0.000454703915151274</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E197">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F197">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>463</v>
@@ -13244,28 +13244,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0004630283853406533</v>
+        <v>0.000454703915151274</v>
       </c>
       <c r="C198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F198">
-        <v>0.1899999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K198">
         <v>0.001095599336010186</v>
@@ -13294,28 +13294,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0004481656562776448</v>
+        <v>0.0004130709632573098</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F199">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K199">
         <v>0.001095404926800702</v>
@@ -13344,28 +13344,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0004481656562776448</v>
+        <v>0.0004130709632573098</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K200">
         <v>0.001054358681054036</v>
@@ -13394,7 +13394,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0004071313511251882</v>
+        <v>0.0004130709632573098</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>464</v>
@@ -13444,7 +13444,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004071313511251882</v>
+        <v>0.0004130709632573098</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>465</v>
@@ -13494,25 +13494,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004071313511251882</v>
+        <v>0.0003937138080375644</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="F203">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>466</v>
@@ -13544,25 +13544,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004071313511251882</v>
+        <v>0.0003832715944953707</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E204">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="F204">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>70</v>
+        <v>935</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>467</v>
@@ -13594,25 +13594,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003880525354747021</v>
+        <v>0.00036729642487741</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="F205">
-        <v>0.8</v>
+        <v>0.12</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>468</v>
@@ -13644,25 +13644,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003777604721579137</v>
+        <v>0.00036729642487741</v>
       </c>
       <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
         <v>8</v>
       </c>
-      <c r="D206">
-        <v>33</v>
-      </c>
       <c r="E206">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>935</v>
+        <v>5</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>469</v>
@@ -13694,7 +13694,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003620150120080969</v>
+        <v>0.00036729642487741</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>470</v>
@@ -13744,7 +13744,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003620150120080969</v>
+        <v>0.00036729642487741</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>471</v>
@@ -13794,7 +13794,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003620150120080969</v>
+        <v>0.00036729642487741</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>472</v>
@@ -13844,7 +13844,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003620150120080969</v>
+        <v>0.00036729642487741</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>473</v>
@@ -13894,25 +13894,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003620150120080969</v>
+        <v>0.0003244131427131404</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F211">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>474</v>
@@ -13944,25 +13944,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003620150120080969</v>
+        <v>0.0003244131427131404</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>475</v>
@@ -13994,7 +13994,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003197483552802887</v>
+        <v>0.0003244131427131404</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -14012,7 +14012,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>476</v>
@@ -14044,7 +14044,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003197483552802887</v>
+        <v>0.0003244131427131404</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -14062,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>477</v>
@@ -14094,25 +14094,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003197483552802887</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E215">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F215">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>478</v>
@@ -14144,25 +14144,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003197483552802887</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E216">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F216">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>479</v>
@@ -14194,7 +14194,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003120662357096509</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>480</v>
@@ -14244,7 +14244,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003120662357096509</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14262,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>481</v>
@@ -14294,7 +14294,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003120662357096509</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14312,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>482</v>
@@ -14344,7 +14344,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003120662357096509</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14362,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>483</v>
@@ -14394,7 +14394,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003120662357096509</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14412,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>484</v>
@@ -14444,7 +14444,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003120662357096509</v>
+        <v>0.0003166189492123666</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14462,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>485</v>
@@ -14494,25 +14494,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003120662357096509</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E223">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F223">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>486</v>
@@ -14544,25 +14544,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003120662357096509</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>487</v>
@@ -14594,7 +14594,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14612,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>488</v>
@@ -14644,7 +14644,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14662,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>489</v>
@@ -14694,7 +14694,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14712,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>490</v>
@@ -14744,7 +14744,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14762,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>491</v>
@@ -14794,7 +14794,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>492</v>
@@ -14844,7 +14844,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>493</v>
@@ -14894,7 +14894,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002563878025094798</v>
+        <v>0.0002601282270631394</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>494</v>
@@ -14944,25 +14944,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002563878025094798</v>
+        <v>0.0002297632005022355</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F232">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>495</v>
@@ -14994,25 +14994,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002563878025094798</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>496</v>
@@ -15044,25 +15044,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.000226459399425402</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>497</v>
@@ -15094,7 +15094,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001940262677373511</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>498</v>
@@ -15144,7 +15144,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001940262677373511</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>499</v>
@@ -15194,7 +15194,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001940262677373511</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>500</v>
@@ -15244,7 +15244,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001940262677373511</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15262,7 +15262,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>501</v>
@@ -15294,7 +15294,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001940262677373511</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15312,7 +15312,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>502</v>
@@ -15344,7 +15344,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001940262677373511</v>
+        <v>0.0001968569040187822</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15362,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>503</v>
@@ -15394,25 +15394,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001940262677373511</v>
+        <v>0.0001786447531262495</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>504</v>
@@ -15444,25 +15444,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001940262677373511</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>505</v>
@@ -15494,13 +15494,13 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001760759922173701</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E243">
         <v>0.75</v>
@@ -15512,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>506</v>
@@ -15544,7 +15544,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001245045281010527</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>507</v>
@@ -15594,7 +15594,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001245045281010527</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15612,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>508</v>
@@ -15644,7 +15644,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001245045281010527</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>509</v>
@@ -15694,7 +15694,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001245045281010527</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15712,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>510</v>
@@ -15744,7 +15744,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001245045281010527</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>511</v>
@@ -15794,7 +15794,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001245045281010527</v>
+        <v>0.0001263209163589682</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>512</v>
@@ -15844,25 +15844,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001245045281010527</v>
+        <v>7.271334871685542E-05</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>513</v>
@@ -15894,25 +15894,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001245045281010527</v>
+        <v>7.27133487168543E-05</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>514</v>
@@ -15944,25 +15944,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>7.166779207738574E-05</v>
+        <v>7.27133487168543E-05</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E252">
+        <v>0.67</v>
+      </c>
+      <c r="F252">
         <v>0.33</v>
       </c>
-      <c r="F252">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>515</v>
@@ -15994,13 +15994,13 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>7.166779207738463E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E253">
         <v>0.67</v>
@@ -16012,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>516</v>
@@ -16044,13 +16044,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>7.166779207738463E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E254">
         <v>0.67</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>517</v>
@@ -16094,7 +16094,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>518</v>
@@ -16144,7 +16144,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>519</v>
@@ -16194,7 +16194,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16212,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>520</v>
@@ -16244,7 +16244,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16262,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>521</v>
@@ -16294,7 +16294,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16312,7 +16312,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>522</v>
@@ -16344,7 +16344,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>523</v>
@@ -16394,7 +16394,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>524</v>
@@ -16444,7 +16444,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>525</v>
@@ -16494,7 +16494,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>526</v>
@@ -16544,7 +16544,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>527</v>
@@ -16594,7 +16594,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.067678177058619E-05</v>
+        <v>5.141610196046981E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>528</v>
@@ -16644,25 +16644,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>5.067678177058619E-05</v>
+        <v>2.512616541500906E-05</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F266">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>529</v>
@@ -16694,25 +16694,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>5.067678177058619E-05</v>
+        <v>2.512616541500906E-05</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>530</v>
@@ -16744,7 +16744,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>2.476487234382382E-05</v>
+        <v>2.512616541500906E-05</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -16762,7 +16762,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>531</v>
@@ -16794,7 +16794,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>2.476487234382382E-05</v>
+        <v>2.512616541500906E-05</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -16812,7 +16812,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>532</v>
@@ -16844,28 +16844,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>2.476487234382382E-05</v>
+        <v>1.553084752244943E-05</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E270">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F270">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K270">
         <v>0.0009829606480866735</v>
@@ -16894,28 +16894,28 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>2.476487234382382E-05</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E271">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F271">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K271">
         <v>0.0009457546529891066</v>
@@ -16944,28 +16944,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>1.53075270313671E-05</v>
+        <v>0</v>
       </c>
       <c r="C272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E272">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F272">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K272">
         <v>0.000898664054872025</v>
@@ -17012,10 +17012,10 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K273">
         <v>0.000898664054872025</v>
@@ -17062,10 +17062,10 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K274">
         <v>0.0008842486182970681</v>
@@ -17112,10 +17112,10 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K275">
         <v>0.000864367707398578</v>
@@ -17162,10 +17162,10 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K276">
         <v>0.0008532057717603778</v>
@@ -17262,7 +17262,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>534</v>
@@ -17312,7 +17312,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>535</v>
@@ -17362,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>536</v>
@@ -17397,10 +17397,10 @@
         <v>0</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E281">
         <v>0.5</v>
@@ -17412,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>537</v>
@@ -17462,7 +17462,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>538</v>
@@ -17497,10 +17497,10 @@
         <v>0</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E283">
         <v>0.5</v>
@@ -17512,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>539</v>
@@ -17562,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>540</v>
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>542</v>
@@ -17690,30 +17690,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>2</v>
-      </c>
-      <c r="E287">
-        <v>0.5</v>
-      </c>
-      <c r="F287">
-        <v>0.5</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>27</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>543</v>
       </c>
@@ -17740,30 +17716,6 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>2</v>
-      </c>
-      <c r="E288">
-        <v>0.5</v>
-      </c>
-      <c r="F288">
-        <v>0.5</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>7</v>
-      </c>
       <c r="J288" s="1" t="s">
         <v>544</v>
       </c>
@@ -21223,7 +21175,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K421">
         <v>0.0006902926060162585</v>
@@ -21249,7 +21201,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K422">
         <v>0.0006786555286955381</v>
@@ -21275,7 +21227,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K423">
         <v>0.0006517370220556137</v>
@@ -21301,7 +21253,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K424">
         <v>0.0006304404006108132</v>
@@ -21327,7 +21279,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K425">
         <v>0.0006033075869592649</v>
@@ -21353,7 +21305,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K426">
         <v>0.0006033075869592649</v>
@@ -21379,7 +21331,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K427">
         <v>0.0006033075869592649</v>
@@ -21405,7 +21357,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K428">
         <v>0.0006033075869592649</v>
@@ -21431,7 +21383,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K429">
         <v>0.0005978507573386675</v>
@@ -21457,7 +21409,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K430">
         <v>0.0005978507573386675</v>
@@ -30375,7 +30327,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K773">
         <v>0.0005650815347121187</v>
@@ -30401,7 +30353,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K774">
         <v>0.0005589922003207494</v>
@@ -30427,7 +30379,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K775">
         <v>0.0005589922003207494</v>
@@ -30453,7 +30405,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K776">
         <v>0.0005141223810354525</v>
@@ -30479,7 +30431,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K777">
         <v>0.0005141223810354525</v>
@@ -30505,7 +30457,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K778">
         <v>0.0004687017181945039</v>
@@ -30531,7 +30483,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K779">
         <v>0.0004324208431527357</v>
@@ -30557,7 +30509,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K780">
         <v>0.0004227443246516848</v>
@@ -30583,7 +30535,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K781">
         <v>0.0004227443246516848</v>
@@ -30609,7 +30561,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K782">
         <v>0.0003762805451246533</v>
@@ -30635,7 +30587,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K783">
         <v>0.0003318254156279106</v>
@@ -30661,7 +30613,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K784">
         <v>0.000329366084127387</v>
@@ -30687,7 +30639,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K785">
         <v>0.000329366084127387</v>
@@ -30713,7 +30665,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K786">
         <v>0.000298276226530593</v>
@@ -30739,7 +30691,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K787">
         <v>0.0002820970788412929</v>
@@ -30765,7 +30717,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K788">
         <v>0.0002820970788412929</v>
@@ -30791,7 +30743,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K789">
         <v>0.0002820970788412929</v>
@@ -30817,7 +30769,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K790">
         <v>0.0002820970788412929</v>
@@ -30843,7 +30795,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K791">
         <v>0.0002346360015605407</v>
@@ -30869,7 +30821,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K792">
         <v>0.0002346360015605407</v>
@@ -30895,7 +30847,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K793">
         <v>0.0002346360015605407</v>
@@ -30921,7 +30873,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K794">
         <v>0.0002346360015605407</v>
@@ -30947,7 +30899,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K795">
         <v>0.0002346360015605407</v>
@@ -30973,7 +30925,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K796">
         <v>0.0002346360015605407</v>
@@ -30999,7 +30951,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K797">
         <v>0.0002324616466876513</v>
@@ -31025,7 +30977,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K798">
         <v>0.0001872584639081406</v>
@@ -31051,7 +31003,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K799">
         <v>0.0001872584639081406</v>
@@ -31077,7 +31029,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K800">
         <v>0.0001872584639081406</v>
@@ -31103,7 +31055,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K801">
         <v>0.0001872584639081406</v>
@@ -31129,7 +31081,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K802">
         <v>0.0001872584639081406</v>
@@ -31155,7 +31107,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K803">
         <v>0.0001872584639081406</v>
@@ -31181,7 +31133,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K804">
         <v>0.0001872584639081406</v>
@@ -31207,7 +31159,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K805">
         <v>0.0001872584639081406</v>
@@ -31233,7 +31185,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K806">
         <v>0.0001661627323827893</v>
@@ -31259,7 +31211,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K807">
         <v>0.0001661627323827893</v>
@@ -31285,7 +31237,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K808">
         <v>0.0001661627323827893</v>
@@ -31311,7 +31263,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K809">
         <v>0.0001661627323827893</v>
@@ -31337,7 +31289,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K810">
         <v>0.0001635914389222019</v>
@@ -31363,7 +31315,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K811">
         <v>0.0001404434247230709</v>
@@ -31389,7 +31341,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K812">
         <v>0.0001404434247230709</v>
@@ -31415,7 +31367,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K813">
         <v>0.0001404434247230709</v>
@@ -31441,7 +31393,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K814">
         <v>0.0001404434247230709</v>
@@ -31467,7 +31419,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K815">
         <v>0.0001404434247230709</v>
@@ -31493,7 +31445,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K816">
         <v>0.0001404434247230709</v>
@@ -31519,7 +31471,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K817">
         <v>0.0001404434247230709</v>
@@ -31545,7 +31497,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K818">
         <v>0.0001404434247230709</v>
@@ -31571,7 +31523,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K819">
         <v>0.0001404434247230709</v>
@@ -31597,7 +31549,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K820">
         <v>0.0001037871108166924</v>
@@ -31623,7 +31575,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K821">
         <v>9.506257508036689E-05</v>
@@ -31649,7 +31601,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K822">
         <v>9.506257508036689E-05</v>
@@ -31675,7 +31627,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K823">
         <v>9.506257508036689E-05</v>
@@ -31701,7 +31653,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K824">
         <v>9.506257508036689E-05</v>
@@ -31727,7 +31679,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K825">
         <v>9.506257508036689E-05</v>
@@ -31753,7 +31705,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K826">
         <v>9.506257508036689E-05</v>
@@ -31779,7 +31731,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K827">
         <v>9.506257508036689E-05</v>
@@ -31805,7 +31757,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K828">
         <v>9.506257508036689E-05</v>
@@ -31831,7 +31783,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K829">
         <v>7.471018653713945E-05</v>
@@ -31857,7 +31809,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K830">
         <v>5.28280795241232E-05</v>
@@ -31883,7 +31835,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K831">
         <v>5.28280795241232E-05</v>
@@ -31909,7 +31861,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K832">
         <v>5.28280795241232E-05</v>
@@ -31935,7 +31887,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K833">
         <v>5.28280795241232E-05</v>
@@ -31961,7 +31913,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K834">
         <v>5.28280795241232E-05</v>
@@ -31987,7 +31939,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K835">
         <v>5.28280795241232E-05</v>
@@ -32013,7 +31965,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K836">
         <v>5.28280795241232E-05</v>
@@ -32039,7 +31991,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K837">
         <v>5.28280795241232E-05</v>
@@ -32065,7 +32017,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K838">
         <v>4.753128754018345E-05</v>
@@ -32091,7 +32043,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K839">
         <v>2.482893387620619E-05</v>
@@ -32117,7 +32069,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K840">
         <v>2.482893387620619E-05</v>
@@ -32143,7 +32095,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K841">
         <v>1.755670751349788E-05</v>
@@ -32169,7 +32121,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K842">
         <v>1.755670751349788E-05</v>
@@ -32195,7 +32147,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K843">
         <v>1.755670751349788E-05</v>
@@ -32221,7 +32173,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K844">
         <v>1.755670751349788E-05</v>
@@ -32247,7 +32199,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K845">
         <v>1.755670751349788E-05</v>
@@ -32273,7 +32225,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K846">
         <v>1.755670751349788E-05</v>
@@ -32299,7 +32251,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K847">
         <v>1.755670751349788E-05</v>
@@ -32325,7 +32277,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K848">
         <v>1.755670751349788E-05</v>
@@ -32351,7 +32303,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K849">
         <v>1.755670751349788E-05</v>
@@ -32377,7 +32329,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K850">
         <v>1.755670751349788E-05</v>
@@ -32403,7 +32355,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K851">
         <v>1.755670751349788E-05</v>
@@ -32429,7 +32381,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K852">
         <v>1.755670751349788E-05</v>
@@ -32455,7 +32407,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K853">
         <v>1.755670751349788E-05</v>
@@ -32481,7 +32433,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K854">
         <v>1.241446693810296E-05</v>
@@ -32507,7 +32459,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K855">
         <v>7.430204590124812E-06</v>
@@ -32533,7 +32485,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K856">
         <v>7.430204590124812E-06</v>
@@ -32559,7 +32511,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K857">
         <v>7.430204590124812E-06</v>
@@ -32585,7 +32537,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K858">
         <v>7.430204590124812E-06</v>
@@ -32611,7 +32563,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K859">
         <v>4.330055394581768E-06</v>
@@ -32637,7 +32589,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K860">
         <v>0</v>
@@ -32663,7 +32615,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K861">
         <v>0</v>
@@ -32689,7 +32641,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K862">
         <v>0</v>
@@ -32715,7 +32667,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K863">
         <v>0</v>
@@ -32741,7 +32693,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K864">
         <v>0</v>
@@ -32767,7 +32719,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K865">
         <v>0</v>
@@ -32793,7 +32745,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K866">
         <v>0</v>
@@ -32819,7 +32771,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K867">
         <v>0</v>
@@ -32845,7 +32797,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K868">
         <v>0</v>
@@ -32871,7 +32823,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K869">
         <v>0</v>
@@ -32897,7 +32849,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K870">
         <v>0</v>
@@ -32923,7 +32875,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K871">
         <v>0</v>
@@ -32949,7 +32901,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K872">
         <v>0</v>
@@ -32975,7 +32927,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K873">
         <v>0</v>
@@ -33001,7 +32953,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K874">
         <v>0</v>
@@ -33027,7 +32979,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K875">
         <v>0</v>
